--- a/s05_aftab_nagar_progress.xlsx
+++ b/s05_aftab_nagar_progress.xlsx
@@ -5,30 +5,42 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UTILITY RELOCATION\extra\web app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Office\2. NKB\Utility\web app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAB9CA4-607D-4616-8EBC-93E28EAEA6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD835B39-F9AD-4E03-97A6-8D0EDB66D734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Corridor Work" sheetId="2" r:id="rId1"/>
     <sheet name="Progress" sheetId="4" r:id="rId2"/>
     <sheet name="Issue Log" sheetId="3" r:id="rId3"/>
     <sheet name="images" sheetId="1" r:id="rId4"/>
+    <sheet name="Status" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="84">
   <si>
     <t>Corridor</t>
   </si>
@@ -253,6 +265,33 @@
   </si>
   <si>
     <t>W1.0xD2.2</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S4-1</t>
+  </si>
+  <si>
+    <t>S4-2</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Trial Pit</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -331,7 +370,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -347,12 +386,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -638,17 +671,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341F8D72-1DB1-4E58-BF84-59E9EEAD3E98}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -685,8 +718,8 @@
       <c r="A2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="9">
-        <v>1</v>
+      <c r="B2" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -715,8 +748,8 @@
       <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="9">
-        <v>1</v>
+      <c r="B3" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -745,8 +778,8 @@
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="9">
-        <v>1</v>
+      <c r="B4" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -775,8 +808,8 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
+      <c r="B5" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -805,8 +838,8 @@
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="9">
-        <v>1</v>
+      <c r="B6" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -835,8 +868,8 @@
       <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="9">
-        <v>1</v>
+      <c r="B7" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -865,8 +898,8 @@
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="9">
-        <v>1</v>
+      <c r="B8" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -895,8 +928,8 @@
       <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="9">
-        <v>1</v>
+      <c r="B9" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -925,8 +958,8 @@
       <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="9">
-        <v>1</v>
+      <c r="B10" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -955,8 +988,8 @@
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="9">
-        <v>1</v>
+      <c r="B11" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -985,8 +1018,8 @@
       <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="9">
-        <v>1</v>
+      <c r="B12" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -1015,8 +1048,8 @@
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="9">
-        <v>1</v>
+      <c r="B13" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -1045,8 +1078,8 @@
       <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="9">
-        <v>1</v>
+      <c r="B14" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -1075,8 +1108,8 @@
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="8">
-        <v>6</v>
+      <c r="B15" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C15" t="s">
         <v>35</v>
@@ -1105,8 +1138,8 @@
       <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="8">
-        <v>6</v>
+      <c r="B16" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C16" t="s">
         <v>35</v>
@@ -1135,8 +1168,8 @@
       <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="8">
-        <v>6</v>
+      <c r="B17" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C17" t="s">
         <v>35</v>
@@ -1165,8 +1198,8 @@
       <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="8">
-        <v>6</v>
+      <c r="B18" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
@@ -1195,8 +1228,8 @@
       <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="8">
-        <v>6</v>
+      <c r="B19" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C19" t="s">
         <v>35</v>
@@ -1225,8 +1258,8 @@
       <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="8">
-        <v>6</v>
+      <c r="B20" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
@@ -1255,8 +1288,8 @@
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="8">
-        <v>6</v>
+      <c r="B21" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
@@ -1285,8 +1318,8 @@
       <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="8">
-        <v>6</v>
+      <c r="B22" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
@@ -1315,8 +1348,8 @@
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="8">
-        <v>6</v>
+      <c r="B23" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C23" t="s">
         <v>35</v>
@@ -1345,8 +1378,8 @@
       <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="8">
-        <v>6</v>
+      <c r="B24" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C24" t="s">
         <v>35</v>
@@ -1375,8 +1408,8 @@
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="8">
-        <v>6</v>
+      <c r="B25" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
@@ -1405,8 +1438,8 @@
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="8">
-        <v>6</v>
+      <c r="B26" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
@@ -1435,8 +1468,8 @@
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="8">
-        <v>6</v>
+      <c r="B27" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
@@ -1465,8 +1498,8 @@
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="8">
-        <v>7</v>
+      <c r="B28" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1495,8 +1528,8 @@
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="8">
-        <v>7</v>
+      <c r="B29" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="C29" t="s">
         <v>35</v>
@@ -1525,8 +1558,8 @@
       <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="8">
-        <v>7</v>
+      <c r="B30" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="C30" t="s">
         <v>35</v>
@@ -1555,8 +1588,8 @@
       <c r="A31" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="8">
-        <v>7</v>
+      <c r="B31" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="C31" t="s">
         <v>35</v>
@@ -1585,8 +1618,8 @@
       <c r="A32" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="8">
-        <v>7</v>
+      <c r="B32" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="C32" t="s">
         <v>35</v>
@@ -1615,8 +1648,8 @@
       <c r="A33" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="8">
-        <v>7</v>
+      <c r="B33" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
@@ -1645,8 +1678,8 @@
       <c r="A34" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="8">
-        <v>7</v>
+      <c r="B34" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="C34" t="s">
         <v>35</v>
@@ -1675,8 +1708,8 @@
       <c r="A35" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="8">
-        <v>7</v>
+      <c r="B35" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="C35" t="s">
         <v>35</v>
@@ -1705,8 +1738,8 @@
       <c r="A36" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="9">
-        <v>2</v>
+      <c r="B36" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -1735,8 +1768,8 @@
       <c r="A37" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="9">
-        <v>2</v>
+      <c r="B37" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -1765,8 +1798,8 @@
       <c r="A38" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="9">
-        <v>2</v>
+      <c r="B38" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
@@ -1795,8 +1828,8 @@
       <c r="A39" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="9">
-        <v>2</v>
+      <c r="B39" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
@@ -1825,8 +1858,8 @@
       <c r="A40" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="9">
-        <v>2</v>
+      <c r="B40" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -1855,8 +1888,8 @@
       <c r="A41" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="9">
-        <v>2</v>
+      <c r="B41" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
@@ -1885,8 +1918,8 @@
       <c r="A42" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="9">
-        <v>2</v>
+      <c r="B42" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -1915,8 +1948,8 @@
       <c r="A43" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="9">
-        <v>2</v>
+      <c r="B43" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -1945,8 +1978,8 @@
       <c r="A44" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="9">
-        <v>2</v>
+      <c r="B44" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -1975,8 +2008,8 @@
       <c r="A45" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="9">
-        <v>2</v>
+      <c r="B45" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -2005,8 +2038,8 @@
       <c r="A46" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="9">
-        <v>2</v>
+      <c r="B46" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -2035,8 +2068,8 @@
       <c r="A47" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="9">
-        <v>2</v>
+      <c r="B47" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -2065,8 +2098,8 @@
       <c r="A48" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="9">
-        <v>2</v>
+      <c r="B48" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
@@ -2095,8 +2128,8 @@
       <c r="A49" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="9">
-        <v>3</v>
+      <c r="B49" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
@@ -2125,8 +2158,8 @@
       <c r="A50" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="9">
-        <v>3</v>
+      <c r="B50" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -2155,8 +2188,8 @@
       <c r="A51" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="9">
-        <v>3</v>
+      <c r="B51" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -2185,8 +2218,8 @@
       <c r="A52" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="9">
-        <v>3</v>
+      <c r="B52" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -2215,8 +2248,8 @@
       <c r="A53" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="9">
-        <v>3</v>
+      <c r="B53" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -2245,8 +2278,8 @@
       <c r="A54" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="9">
-        <v>3</v>
+      <c r="B54" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -2275,8 +2308,8 @@
       <c r="A55" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="9">
-        <v>3</v>
+      <c r="B55" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -2305,8 +2338,8 @@
       <c r="A56" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="9">
-        <v>3</v>
+      <c r="B56" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
@@ -2335,8 +2368,8 @@
       <c r="A57" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="9">
-        <v>3</v>
+      <c r="B57" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
@@ -2365,8 +2398,8 @@
       <c r="A58" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="9">
-        <v>3</v>
+      <c r="B58" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
@@ -2395,8 +2428,8 @@
       <c r="A59" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="9">
-        <v>5</v>
+      <c r="B59" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
@@ -2425,8 +2458,8 @@
       <c r="A60" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B60" s="9">
-        <v>5</v>
+      <c r="B60" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
@@ -2455,8 +2488,8 @@
       <c r="A61" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="9">
-        <v>5</v>
+      <c r="B61" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
@@ -2485,8 +2518,8 @@
       <c r="A62" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="9">
-        <v>5</v>
+      <c r="B62" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
@@ -2515,8 +2548,8 @@
       <c r="A63" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B63" s="9">
-        <v>5</v>
+      <c r="B63" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
@@ -2545,8 +2578,8 @@
       <c r="A64" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="9">
-        <v>5</v>
+      <c r="B64" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -2575,8 +2608,8 @@
       <c r="A65" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="9">
-        <v>5</v>
+      <c r="B65" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
@@ -2605,8 +2638,8 @@
       <c r="A66" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="9">
-        <v>5</v>
+      <c r="B66" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -2642,10 +2675,10 @@
   <dimension ref="A1:C186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -2660,2037 +2693,2037 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4">
-        <v>45563</v>
+        <v>45392</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4">
-        <v>45564</v>
+        <v>45393</v>
       </c>
       <c r="B3">
         <v>1.5</v>
       </c>
       <c r="C3">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4">
-        <v>45565</v>
+        <v>45394</v>
       </c>
       <c r="B4">
         <v>2.9</v>
       </c>
       <c r="C4">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4">
-        <v>45566</v>
+        <v>45395</v>
       </c>
       <c r="B5">
         <v>3.6</v>
       </c>
       <c r="C5">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4">
-        <v>45567</v>
+        <v>45396</v>
       </c>
       <c r="B6">
         <v>4.3</v>
       </c>
       <c r="C6">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4">
-        <v>45568</v>
+        <v>45397</v>
       </c>
       <c r="B7">
         <v>5.9</v>
       </c>
       <c r="C7">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4">
-        <v>45569</v>
+        <v>45398</v>
       </c>
       <c r="B8">
         <v>7.5</v>
       </c>
       <c r="C8">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4">
-        <v>45570</v>
+        <v>45399</v>
       </c>
       <c r="B9">
         <v>8.8000000000000007</v>
       </c>
       <c r="C9">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4">
-        <v>45571</v>
+        <v>45400</v>
       </c>
       <c r="B10">
         <v>9.4</v>
       </c>
       <c r="C10">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4">
-        <v>45572</v>
+        <v>45401</v>
       </c>
       <c r="B11">
         <v>9.6</v>
       </c>
       <c r="C11">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4">
-        <v>45573</v>
+        <v>45402</v>
       </c>
       <c r="B12">
         <v>9.9</v>
       </c>
       <c r="C12">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4">
-        <v>45574</v>
+        <v>45403</v>
       </c>
       <c r="B13">
         <v>10.199999999999999</v>
       </c>
       <c r="C13">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4">
-        <v>45575</v>
+        <v>45404</v>
       </c>
       <c r="B14">
         <v>10.8</v>
       </c>
       <c r="C14">
-        <v>4.5999999999999996</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4">
-        <v>45576</v>
+        <v>45405</v>
       </c>
       <c r="B15">
         <v>11.6</v>
       </c>
       <c r="C15">
-        <v>4.5999999999999996</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4">
-        <v>45577</v>
+        <v>45406</v>
       </c>
       <c r="B16">
         <v>12.5</v>
       </c>
       <c r="C16">
-        <v>4.5999999999999996</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4">
-        <v>45578</v>
+        <v>45407</v>
       </c>
       <c r="B17">
         <v>13.2</v>
       </c>
       <c r="C17">
-        <v>4.5999999999999996</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4">
-        <v>45579</v>
+        <v>45408</v>
       </c>
       <c r="B18">
         <v>14</v>
       </c>
       <c r="C18">
-        <v>4.5999999999999996</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4">
-        <v>45580</v>
+        <v>45409</v>
       </c>
       <c r="B19">
         <v>14.8</v>
       </c>
       <c r="C19">
-        <v>4.5999999999999996</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4">
-        <v>45581</v>
+        <v>45410</v>
       </c>
       <c r="B20">
         <v>15.4</v>
       </c>
       <c r="C20">
-        <v>4.5999999999999996</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4">
-        <v>45582</v>
+        <v>45411</v>
       </c>
       <c r="B21">
         <v>15.8</v>
       </c>
       <c r="C21">
-        <v>4.5999999999999996</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4">
-        <v>45583</v>
+        <v>45412</v>
       </c>
       <c r="B22">
         <v>16.7</v>
       </c>
       <c r="C22">
-        <v>4.5999999999999996</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4">
-        <v>45584</v>
+        <v>45413</v>
       </c>
       <c r="B23">
         <v>17.8</v>
       </c>
       <c r="C23">
-        <v>4.5999999999999996</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4">
-        <v>45585</v>
+        <v>45414</v>
       </c>
       <c r="B24">
         <v>18.899999999999999</v>
       </c>
       <c r="C24">
-        <v>4.5999999999999996</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4">
-        <v>45586</v>
+        <v>45415</v>
       </c>
       <c r="B25">
         <v>19.8</v>
       </c>
       <c r="C25">
-        <v>4.5999999999999996</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4">
-        <v>45587</v>
+        <v>45416</v>
       </c>
       <c r="B26">
         <v>20.8</v>
       </c>
       <c r="C26">
-        <v>4.5999999999999996</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4">
-        <v>45588</v>
+        <v>45417</v>
       </c>
       <c r="B27">
         <v>21.8</v>
       </c>
       <c r="C27">
-        <v>5.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="4">
-        <v>45589</v>
+        <v>45418</v>
       </c>
       <c r="B28">
         <v>23</v>
       </c>
       <c r="C28">
-        <v>5.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="4">
-        <v>45590</v>
+        <v>45419</v>
       </c>
       <c r="B29">
         <v>24.2</v>
       </c>
       <c r="C29">
-        <v>5.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="4">
-        <v>45591</v>
+        <v>45420</v>
       </c>
       <c r="B30">
         <v>25.6</v>
       </c>
       <c r="C30">
-        <v>5.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4">
-        <v>45592</v>
+        <v>45421</v>
       </c>
       <c r="B31">
         <v>27.1</v>
       </c>
       <c r="C31">
-        <v>5.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4">
-        <v>45593</v>
+        <v>45422</v>
       </c>
       <c r="B32">
         <v>28.7</v>
       </c>
       <c r="C32">
-        <v>5.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4">
-        <v>45594</v>
+        <v>45423</v>
       </c>
       <c r="B33">
         <v>30.3</v>
       </c>
       <c r="C33">
-        <v>5.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4">
-        <v>45595</v>
+        <v>45424</v>
       </c>
       <c r="B34">
         <v>31.8</v>
       </c>
       <c r="C34">
-        <v>5.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4">
-        <v>45596</v>
+        <v>45425</v>
       </c>
       <c r="B35">
         <v>33.299999999999997</v>
       </c>
       <c r="C35">
-        <v>6.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="4">
-        <v>45597</v>
+        <v>45426</v>
       </c>
       <c r="B36">
         <v>33.9</v>
       </c>
       <c r="C36">
-        <v>7.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="4">
-        <v>45598</v>
+        <v>45427</v>
       </c>
       <c r="B37">
         <v>34.4</v>
       </c>
       <c r="C37">
-        <v>7.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="4">
-        <v>45599</v>
+        <v>45428</v>
       </c>
       <c r="B38">
         <v>35.200000000000003</v>
       </c>
       <c r="C38">
-        <v>9.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="4">
-        <v>45600</v>
+        <v>45429</v>
       </c>
       <c r="B39">
         <v>36.200000000000003</v>
       </c>
       <c r="C39">
-        <v>9.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="4">
-        <v>45601</v>
+        <v>45430</v>
       </c>
       <c r="B40">
         <v>37.1</v>
       </c>
       <c r="C40">
-        <v>9.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="4">
-        <v>45602</v>
+        <v>45431</v>
       </c>
       <c r="B41">
         <v>37.9</v>
       </c>
       <c r="C41">
-        <v>9.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="4">
-        <v>45603</v>
+        <v>45432</v>
       </c>
       <c r="B42">
         <v>39.200000000000003</v>
       </c>
       <c r="C42">
-        <v>10.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="4">
-        <v>45604</v>
+        <v>45433</v>
       </c>
       <c r="B43">
         <v>40.5</v>
       </c>
       <c r="C43">
-        <v>10.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="4">
-        <v>45605</v>
+        <v>45434</v>
       </c>
       <c r="B44">
         <v>41.9</v>
       </c>
       <c r="C44">
-        <v>10.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="4">
-        <v>45606</v>
+        <v>45435</v>
       </c>
       <c r="B45">
         <v>43.4</v>
       </c>
       <c r="C45">
-        <v>11.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="4">
-        <v>45607</v>
+        <v>45436</v>
       </c>
       <c r="B46">
         <v>45</v>
       </c>
       <c r="C46">
-        <v>18.899999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="4">
-        <v>45608</v>
+        <v>45437</v>
       </c>
       <c r="B47">
         <v>46.7</v>
       </c>
       <c r="C47">
-        <v>19.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="4">
-        <v>45609</v>
+        <v>45438</v>
       </c>
       <c r="B48">
         <v>47.7</v>
       </c>
       <c r="C48">
-        <v>19.600000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="4">
-        <v>45610</v>
+        <v>45439</v>
       </c>
       <c r="B49">
         <v>48.9</v>
       </c>
       <c r="C49">
-        <v>19.899999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="4">
-        <v>45611</v>
+        <v>45440</v>
       </c>
       <c r="B50">
         <v>52.1</v>
       </c>
       <c r="C50">
-        <v>20.399999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="4">
-        <v>45612</v>
+        <v>45441</v>
       </c>
       <c r="B51">
         <v>52.8</v>
       </c>
       <c r="C51">
-        <v>20.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="4">
-        <v>45613</v>
+        <v>45442</v>
       </c>
       <c r="B52">
         <v>53.5</v>
       </c>
       <c r="C52">
-        <v>21.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="4">
-        <v>45614</v>
+        <v>45443</v>
       </c>
       <c r="B53">
         <v>54.3</v>
       </c>
       <c r="C53">
-        <v>21.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="4">
-        <v>45615</v>
+        <v>45444</v>
       </c>
       <c r="B54">
         <v>55.1</v>
       </c>
       <c r="C54">
-        <v>22.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="4">
-        <v>45616</v>
+        <v>45445</v>
       </c>
       <c r="B55">
         <v>55.8</v>
       </c>
       <c r="C55">
-        <v>22.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="4">
-        <v>45617</v>
+        <v>45446</v>
       </c>
       <c r="B56">
         <v>56.6</v>
       </c>
       <c r="C56">
-        <v>22.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="4">
-        <v>45618</v>
+        <v>45447</v>
       </c>
       <c r="B57">
         <v>57.4</v>
       </c>
       <c r="C57">
-        <v>23.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="4">
-        <v>45619</v>
+        <v>45448</v>
       </c>
       <c r="B58">
         <v>58.1</v>
       </c>
       <c r="C58">
-        <v>23.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="4">
-        <v>45620</v>
+        <v>45449</v>
       </c>
       <c r="B59">
         <v>58.9</v>
       </c>
       <c r="C59">
-        <v>23.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="4">
-        <v>45621</v>
+        <v>45450</v>
       </c>
       <c r="B60">
         <v>59.6</v>
       </c>
       <c r="C60">
-        <v>23.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="4">
-        <v>45622</v>
+        <v>45451</v>
       </c>
       <c r="B61">
         <v>60.3</v>
       </c>
       <c r="C61">
-        <v>23.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="4">
-        <v>45623</v>
+        <v>45452</v>
       </c>
       <c r="B62">
         <v>60.9</v>
       </c>
       <c r="C62">
-        <v>23.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="4">
-        <v>45624</v>
+        <v>45453</v>
       </c>
       <c r="B63">
         <v>61.5</v>
       </c>
       <c r="C63">
-        <v>24.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="4">
-        <v>45625</v>
+        <v>45454</v>
       </c>
       <c r="B64">
         <v>62.2</v>
       </c>
       <c r="C64">
-        <v>25.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="4">
-        <v>45626</v>
+        <v>45455</v>
       </c>
       <c r="B65">
         <v>62.8</v>
       </c>
       <c r="C65">
-        <v>25.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="4">
-        <v>45627</v>
+        <v>45456</v>
       </c>
       <c r="B66">
         <v>63.5</v>
       </c>
       <c r="C66">
-        <v>26</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="4">
-        <v>45628</v>
+        <v>45457</v>
       </c>
       <c r="B67">
         <v>64.099999999999994</v>
       </c>
       <c r="C67">
-        <v>26.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="4">
-        <v>45629</v>
+        <v>45458</v>
       </c>
       <c r="B68">
         <v>64.7</v>
       </c>
       <c r="C68">
-        <v>26.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="4">
-        <v>45630</v>
+        <v>45459</v>
       </c>
       <c r="B69">
         <v>65.3</v>
       </c>
       <c r="C69">
-        <v>26.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="4">
-        <v>45631</v>
+        <v>45460</v>
       </c>
       <c r="B70">
         <v>65.8</v>
       </c>
       <c r="C70">
-        <v>26.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="4">
-        <v>45632</v>
+        <v>45461</v>
       </c>
       <c r="B71">
         <v>67.099999999999994</v>
       </c>
       <c r="C71">
-        <v>27.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="4">
-        <v>45633</v>
+        <v>45462</v>
       </c>
       <c r="B72">
         <v>68.400000000000006</v>
       </c>
       <c r="C72">
-        <v>27.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="4">
-        <v>45634</v>
+        <v>45463</v>
       </c>
       <c r="B73">
         <v>69.400000000000006</v>
       </c>
       <c r="C73">
-        <v>27.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="4">
-        <v>45635</v>
+        <v>45464</v>
       </c>
       <c r="B74">
         <v>70.3</v>
       </c>
       <c r="C74">
-        <v>27.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="4">
-        <v>45636</v>
+        <v>45465</v>
       </c>
       <c r="B75">
         <v>71.2</v>
       </c>
       <c r="C75">
-        <v>29.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="4">
-        <v>45637</v>
+        <v>45466</v>
       </c>
       <c r="B76">
         <v>71.7</v>
       </c>
       <c r="C76">
-        <v>29.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="4">
-        <v>45638</v>
+        <v>45467</v>
       </c>
       <c r="B77">
         <v>72.3</v>
       </c>
       <c r="C77">
-        <v>29.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="4">
-        <v>45639</v>
+        <v>45468</v>
       </c>
       <c r="B78">
         <v>72.8</v>
       </c>
       <c r="C78">
-        <v>30.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="4">
-        <v>45640</v>
+        <v>45469</v>
       </c>
       <c r="B79">
         <v>73.3</v>
       </c>
       <c r="C79">
-        <v>31</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="4">
-        <v>45641</v>
+        <v>45470</v>
       </c>
       <c r="B80">
         <v>74.099999999999994</v>
       </c>
       <c r="C80">
-        <v>31.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="4">
-        <v>45642</v>
+        <v>45471</v>
       </c>
       <c r="B81">
         <v>74.8</v>
       </c>
       <c r="C81">
-        <v>31.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="4">
-        <v>45643</v>
+        <v>45472</v>
       </c>
       <c r="B82">
         <v>75.599999999999994</v>
       </c>
       <c r="C82">
-        <v>31.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="4">
-        <v>45644</v>
+        <v>45473</v>
       </c>
       <c r="B83">
         <v>76.400000000000006</v>
       </c>
       <c r="C83">
-        <v>33.200000000000003</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="4">
-        <v>45645</v>
+        <v>45474</v>
       </c>
       <c r="B84">
         <v>77.099999999999994</v>
       </c>
       <c r="C84">
-        <v>33.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="4">
-        <v>45646</v>
+        <v>45475</v>
       </c>
       <c r="B85">
         <v>77.900000000000006</v>
       </c>
       <c r="C85">
-        <v>33.700000000000003</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="4">
-        <v>45647</v>
+        <v>45476</v>
       </c>
       <c r="B86">
         <v>78.7</v>
       </c>
       <c r="C86">
-        <v>34.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="4">
-        <v>45648</v>
+        <v>45477</v>
       </c>
       <c r="B87">
         <v>79.3</v>
       </c>
       <c r="C87">
-        <v>34.299999999999997</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="4">
-        <v>45649</v>
+        <v>45478</v>
       </c>
       <c r="B88">
         <v>79.8</v>
       </c>
       <c r="C88">
-        <v>34.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="4">
-        <v>45650</v>
+        <v>45479</v>
       </c>
       <c r="B89">
         <v>79.900000000000006</v>
       </c>
       <c r="C89">
-        <v>34.700000000000003</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="4">
-        <v>45651</v>
+        <v>45480</v>
       </c>
       <c r="B90">
         <v>80</v>
       </c>
       <c r="C90">
-        <v>34.799999999999997</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="4">
-        <v>45652</v>
+        <v>45481</v>
       </c>
       <c r="B91">
         <v>80.099999999999994</v>
       </c>
       <c r="C91">
-        <v>35</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="4">
-        <v>45653</v>
+        <v>45482</v>
       </c>
       <c r="B92">
         <v>80.2</v>
       </c>
       <c r="C92">
-        <v>35.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="4">
-        <v>45654</v>
+        <v>45483</v>
       </c>
       <c r="B93">
         <v>80.3</v>
       </c>
       <c r="C93">
-        <v>35.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="4">
-        <v>45655</v>
+        <v>45484</v>
       </c>
       <c r="B94">
         <v>80.400000000000006</v>
       </c>
       <c r="C94">
-        <v>37.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="4">
-        <v>45656</v>
+        <v>45485</v>
       </c>
       <c r="B95">
         <v>80.5</v>
       </c>
       <c r="C95">
-        <v>39.200000000000003</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="4">
-        <v>45657</v>
+        <v>45486</v>
       </c>
       <c r="B96">
         <v>80.599999999999994</v>
       </c>
       <c r="C96">
-        <v>40.299999999999997</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="4">
-        <v>45658</v>
+        <v>45487</v>
       </c>
       <c r="B97">
         <v>81</v>
       </c>
       <c r="C97">
-        <v>41.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="4">
-        <v>45659</v>
+        <v>45488</v>
       </c>
       <c r="B98">
         <v>81.3</v>
       </c>
       <c r="C98">
-        <v>42.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="4">
-        <v>45660</v>
+        <v>45489</v>
       </c>
       <c r="B99">
         <v>81.7</v>
       </c>
       <c r="C99">
-        <v>43.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="4">
-        <v>45661</v>
+        <v>45490</v>
       </c>
       <c r="B100">
         <v>82.1</v>
       </c>
       <c r="C100">
-        <v>45.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="4">
-        <v>45662</v>
+        <v>45491</v>
       </c>
       <c r="B101">
         <v>82.4</v>
       </c>
       <c r="C101">
-        <v>46.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="4">
-        <v>45663</v>
+        <v>45492</v>
       </c>
       <c r="B102">
         <v>82.6</v>
       </c>
       <c r="C102">
-        <v>47.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="4">
-        <v>45664</v>
+        <v>45493</v>
       </c>
       <c r="B103">
         <v>82.9</v>
       </c>
       <c r="C103">
-        <v>48.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="4">
-        <v>45665</v>
+        <v>45494</v>
       </c>
       <c r="B104">
         <v>83</v>
       </c>
       <c r="C104">
-        <v>48.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="4">
-        <v>45666</v>
+        <v>45495</v>
       </c>
       <c r="B105">
         <v>83.3</v>
       </c>
       <c r="C105">
-        <v>50</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="4">
-        <v>45667</v>
+        <v>45496</v>
       </c>
       <c r="B106">
         <v>83.7</v>
       </c>
       <c r="C106">
-        <v>51</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="4">
-        <v>45668</v>
+        <v>45497</v>
       </c>
       <c r="B107">
         <v>84</v>
       </c>
       <c r="C107">
-        <v>51.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="4">
-        <v>45669</v>
+        <v>45498</v>
       </c>
       <c r="B108">
         <v>84.4</v>
       </c>
       <c r="C108">
-        <v>54.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="4">
-        <v>45670</v>
+        <v>45499</v>
       </c>
       <c r="B109">
         <v>84.7</v>
       </c>
       <c r="C109">
-        <v>55</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="4">
-        <v>45671</v>
+        <v>45500</v>
       </c>
       <c r="B110">
         <v>85</v>
       </c>
       <c r="C110">
-        <v>55.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="4">
-        <v>45672</v>
+        <v>45501</v>
       </c>
       <c r="B111">
         <v>85.4</v>
       </c>
       <c r="C111">
-        <v>56</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="4">
-        <v>45673</v>
+        <v>45502</v>
       </c>
       <c r="B112">
         <v>85.4</v>
       </c>
       <c r="C112">
-        <v>56.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="4">
-        <v>45674</v>
+        <v>45503</v>
       </c>
       <c r="B113">
         <v>85.6</v>
       </c>
       <c r="C113">
-        <v>56.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="4">
-        <v>45675</v>
+        <v>45504</v>
       </c>
       <c r="B114">
         <v>85.9</v>
       </c>
       <c r="C114">
-        <v>57</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="4">
-        <v>45676</v>
+        <v>45505</v>
       </c>
       <c r="B115">
         <v>86.2</v>
       </c>
       <c r="C115">
-        <v>57.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="4">
-        <v>45677</v>
+        <v>45506</v>
       </c>
       <c r="B116">
         <v>86.4</v>
       </c>
       <c r="C116">
-        <v>57.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="4">
-        <v>45678</v>
+        <v>45507</v>
       </c>
       <c r="B117">
         <v>86.7</v>
       </c>
       <c r="C117">
-        <v>58.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="4">
-        <v>45679</v>
+        <v>45508</v>
       </c>
       <c r="B118">
         <v>87</v>
       </c>
       <c r="C118">
-        <v>58.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="4">
-        <v>45680</v>
+        <v>45509</v>
       </c>
       <c r="B119">
         <v>87</v>
       </c>
       <c r="C119">
-        <v>59.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="4">
-        <v>45681</v>
+        <v>45510</v>
       </c>
       <c r="B120">
         <v>87</v>
       </c>
       <c r="C120">
-        <v>60</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="4">
-        <v>45682</v>
+        <v>45511</v>
       </c>
       <c r="B121">
         <v>87.3</v>
       </c>
       <c r="C121">
-        <v>60.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="4">
-        <v>45683</v>
+        <v>45512</v>
       </c>
       <c r="B122">
         <v>87.5</v>
       </c>
       <c r="C122">
-        <v>62.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="4">
-        <v>45684</v>
+        <v>45513</v>
       </c>
       <c r="B123">
         <v>87.7</v>
       </c>
       <c r="C123">
-        <v>64.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="4">
-        <v>45685</v>
+        <v>45514</v>
       </c>
       <c r="B124">
         <v>88</v>
       </c>
       <c r="C124">
-        <v>66.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="4">
-        <v>45686</v>
+        <v>45515</v>
       </c>
       <c r="B125">
         <v>88.2</v>
       </c>
       <c r="C125">
-        <v>67.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="4">
-        <v>45687</v>
+        <v>45516</v>
       </c>
       <c r="B126">
         <v>88.5</v>
       </c>
       <c r="C126">
-        <v>68.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="4">
-        <v>45688</v>
+        <v>45517</v>
       </c>
       <c r="B127">
         <v>88.7</v>
       </c>
       <c r="C127">
-        <v>69.099999999999994</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="4">
-        <v>45689</v>
+        <v>45518</v>
       </c>
       <c r="B128">
         <v>88.9</v>
       </c>
       <c r="C128">
-        <v>70</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="4">
-        <v>45690</v>
+        <v>45519</v>
       </c>
       <c r="B129">
         <v>89.2</v>
       </c>
       <c r="C129">
-        <v>70.900000000000006</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="4">
-        <v>45691</v>
+        <v>45520</v>
       </c>
       <c r="B130">
         <v>89.4</v>
       </c>
       <c r="C130">
-        <v>71.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="4">
-        <v>45692</v>
+        <v>45521</v>
       </c>
       <c r="B131">
         <v>89.7</v>
       </c>
       <c r="C131">
-        <v>72.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="4">
-        <v>45693</v>
+        <v>45522</v>
       </c>
       <c r="B132">
         <v>89.9</v>
       </c>
       <c r="C132">
-        <v>73</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="4">
-        <v>45694</v>
+        <v>45523</v>
       </c>
       <c r="B133">
         <v>90.1</v>
       </c>
       <c r="C133">
-        <v>73.099999999999994</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="4">
-        <v>45695</v>
+        <v>45524</v>
       </c>
       <c r="B134">
         <v>90.4</v>
       </c>
       <c r="C134">
-        <v>73.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="4">
-        <v>45696</v>
+        <v>45525</v>
       </c>
       <c r="B135">
         <v>90.9</v>
       </c>
       <c r="C135">
-        <v>73.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="4">
-        <v>45697</v>
+        <v>45526</v>
       </c>
       <c r="B136">
         <v>91.5</v>
       </c>
       <c r="C136">
-        <v>73.400000000000006</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="4">
-        <v>45698</v>
+        <v>45527</v>
       </c>
       <c r="B137">
         <v>92</v>
       </c>
       <c r="C137">
-        <v>73.599999999999994</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="4">
-        <v>45699</v>
+        <v>45528</v>
       </c>
       <c r="B138">
         <v>92.6</v>
       </c>
       <c r="C138">
-        <v>74.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="4">
-        <v>45700</v>
+        <v>45529</v>
       </c>
       <c r="B139">
         <v>92.7</v>
       </c>
       <c r="C139">
-        <v>74.900000000000006</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="4">
-        <v>45701</v>
+        <v>45530</v>
       </c>
       <c r="B140">
         <v>92.9</v>
       </c>
       <c r="C140">
-        <v>75.599999999999994</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="4">
-        <v>45702</v>
+        <v>45531</v>
       </c>
       <c r="B141">
         <v>93.1</v>
       </c>
       <c r="C141">
-        <v>76.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="4">
-        <v>45703</v>
+        <v>45532</v>
       </c>
       <c r="B142">
         <v>93.4</v>
       </c>
       <c r="C142">
-        <v>77.400000000000006</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="4">
-        <v>45704</v>
+        <v>45533</v>
       </c>
       <c r="B143">
         <v>93.6</v>
       </c>
       <c r="C143">
-        <v>77.599999999999994</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="4">
-        <v>45705</v>
+        <v>45534</v>
       </c>
       <c r="B144">
         <v>93.9</v>
       </c>
       <c r="C144">
-        <v>77.900000000000006</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="4">
-        <v>45706</v>
+        <v>45535</v>
       </c>
       <c r="B145">
         <v>94.1</v>
       </c>
       <c r="C145">
-        <v>78.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="4">
-        <v>45707</v>
+        <v>45536</v>
       </c>
       <c r="B146">
         <v>94.3</v>
       </c>
       <c r="C146">
-        <v>78.599999999999994</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="4">
-        <v>45708</v>
+        <v>45537</v>
       </c>
       <c r="B147">
         <v>94.4</v>
       </c>
       <c r="C147">
-        <v>78.900000000000006</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="4">
-        <v>45709</v>
+        <v>45538</v>
       </c>
       <c r="B148">
         <v>94.6</v>
       </c>
       <c r="C148">
-        <v>79.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="4">
-        <v>45710</v>
+        <v>45539</v>
       </c>
       <c r="B149">
         <v>94.7</v>
       </c>
       <c r="C149">
-        <v>79.599999999999994</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="4">
-        <v>45711</v>
+        <v>45540</v>
       </c>
       <c r="B150">
         <v>94.8</v>
       </c>
       <c r="C150">
-        <v>79.900000000000006</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="4">
-        <v>45712</v>
+        <v>45541</v>
       </c>
       <c r="B151">
         <v>95</v>
       </c>
       <c r="C151">
-        <v>80.599999999999994</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="4">
-        <v>45713</v>
+        <v>45542</v>
       </c>
       <c r="B152">
         <v>95.1</v>
       </c>
       <c r="C152">
-        <v>81.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="4">
-        <v>45714</v>
+        <v>45543</v>
       </c>
       <c r="B153">
         <v>95.3</v>
       </c>
       <c r="C153">
-        <v>82.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="4">
-        <v>45715</v>
+        <v>45544</v>
       </c>
       <c r="B154">
         <v>95.4</v>
       </c>
       <c r="C154">
-        <v>83</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="4">
-        <v>45716</v>
+        <v>45545</v>
       </c>
       <c r="B155">
         <v>95.4</v>
       </c>
       <c r="C155">
-        <v>83.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="4">
-        <v>45717</v>
+        <v>45546</v>
       </c>
       <c r="B156">
         <v>95.4</v>
       </c>
       <c r="C156">
-        <v>83.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="4">
-        <v>45718</v>
+        <v>45547</v>
       </c>
       <c r="B157">
         <v>95.4</v>
       </c>
       <c r="C157">
-        <v>83.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="4">
-        <v>45719</v>
+        <v>45548</v>
       </c>
       <c r="B158">
         <v>95.4</v>
       </c>
       <c r="C158">
-        <v>83.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="4">
-        <v>45720</v>
+        <v>45549</v>
       </c>
       <c r="B159">
         <v>95.4</v>
       </c>
       <c r="C159">
-        <v>83.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="4">
-        <v>45721</v>
+        <v>45550</v>
       </c>
       <c r="B160">
         <v>95.4</v>
       </c>
       <c r="C160">
-        <v>84</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="4">
-        <v>45722</v>
+        <v>45551</v>
       </c>
       <c r="B161">
         <v>95.8</v>
       </c>
       <c r="C161">
-        <v>84.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="4">
-        <v>45723</v>
+        <v>45552</v>
       </c>
       <c r="B162">
         <v>96.1</v>
       </c>
       <c r="C162">
-        <v>84.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="4">
-        <v>45724</v>
+        <v>45553</v>
       </c>
       <c r="B163">
         <v>96.4</v>
       </c>
       <c r="C163">
-        <v>84.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="4">
-        <v>45725</v>
+        <v>45554</v>
       </c>
       <c r="B164">
         <v>96.7</v>
       </c>
       <c r="C164">
-        <v>84.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="4">
-        <v>45726</v>
+        <v>45555</v>
       </c>
       <c r="B165">
         <v>97</v>
       </c>
       <c r="C165">
-        <v>84.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="4">
-        <v>45727</v>
+        <v>45556</v>
       </c>
       <c r="B166">
         <v>97.4</v>
       </c>
       <c r="C166">
-        <v>84.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="4">
-        <v>45728</v>
+        <v>45557</v>
       </c>
       <c r="B167">
         <v>97.7</v>
       </c>
       <c r="C167">
-        <v>84.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="4">
-        <v>45729</v>
+        <v>45558</v>
       </c>
       <c r="B168">
         <v>97.8</v>
       </c>
       <c r="C168">
-        <v>84.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="4">
-        <v>45730</v>
+        <v>45559</v>
       </c>
       <c r="B169">
         <v>98</v>
       </c>
       <c r="C169">
-        <v>84.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="4">
-        <v>45731</v>
+        <v>45560</v>
       </c>
       <c r="B170">
         <v>98.1</v>
       </c>
       <c r="C170">
-        <v>84.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="4">
-        <v>45732</v>
+        <v>45561</v>
       </c>
       <c r="B171">
         <v>98.2</v>
       </c>
       <c r="C171">
-        <v>84.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="4">
-        <v>45733</v>
+        <v>45562</v>
       </c>
       <c r="B172">
         <v>98.4</v>
       </c>
       <c r="C172">
-        <v>84.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="4">
-        <v>45734</v>
+        <v>45563</v>
       </c>
       <c r="B173">
         <v>98.5</v>
       </c>
       <c r="C173">
-        <v>84.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="4">
-        <v>45735</v>
+        <v>45564</v>
       </c>
       <c r="B174">
         <v>98.6</v>
       </c>
       <c r="C174">
-        <v>84.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="4">
-        <v>45736</v>
+        <v>45565</v>
       </c>
       <c r="B175">
         <v>98.7</v>
       </c>
       <c r="C175">
-        <v>84.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="4">
-        <v>45737</v>
+        <v>45566</v>
       </c>
       <c r="B176">
         <v>98.9</v>
       </c>
       <c r="C176">
-        <v>84.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="4">
-        <v>45738</v>
+        <v>45567</v>
       </c>
       <c r="B177">
         <v>99.1</v>
       </c>
       <c r="C177">
-        <v>84.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="4">
-        <v>45739</v>
+        <v>45568</v>
       </c>
       <c r="B178">
         <v>99.4</v>
       </c>
       <c r="C178">
-        <v>84.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="4">
-        <v>45740</v>
+        <v>45569</v>
       </c>
       <c r="B179">
         <v>99.7</v>
       </c>
       <c r="C179">
-        <v>84.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="4">
-        <v>45741</v>
+        <v>45570</v>
       </c>
       <c r="B180">
         <v>100</v>
       </c>
       <c r="C180">
-        <v>84.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="4">
-        <v>45742</v>
+        <v>45571</v>
       </c>
       <c r="B181">
         <v>100</v>
       </c>
       <c r="C181">
-        <v>84.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="4">
-        <v>45743</v>
+        <v>45572</v>
       </c>
       <c r="B182">
         <v>100</v>
       </c>
       <c r="C182">
-        <v>84.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="4">
-        <v>45744</v>
+        <v>45573</v>
       </c>
       <c r="B183">
         <v>100</v>
       </c>
       <c r="C183">
-        <v>84.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="4">
-        <v>45745</v>
+        <v>45574</v>
       </c>
       <c r="B184">
         <v>100</v>
       </c>
       <c r="C184">
-        <v>84.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="4">
-        <v>45746</v>
+        <v>45575</v>
       </c>
       <c r="B185">
         <v>100</v>
       </c>
       <c r="C185">
-        <v>84.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="4">
-        <v>45747</v>
+        <v>45576</v>
       </c>
       <c r="B186">
         <v>100</v>
       </c>
       <c r="C186">
-        <v>84.4</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -4703,17 +4736,17 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4847,14 +4880,14 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -4910,4 +4943,45 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC1088C-2000-4932-BABC-44C2221CCB68}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="7.88671875" customWidth="1"/>
+    <col min="2" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/s05_aftab_nagar_progress.xlsx
+++ b/s05_aftab_nagar_progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Office\2. NKB\Utility\web app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD835B39-F9AD-4E03-97A6-8D0EDB66D734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB473A32-9E39-4FC3-9A6B-53DCBFB85F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Corridor Work" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="85">
   <si>
     <t>Corridor</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>update_date</t>
   </si>
 </sst>
 </file>
@@ -671,7 +674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341F8D72-1DB1-4E58-BF84-59E9EEAD3E98}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -4736,7 +4739,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4877,71 +4880,102 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" s="3">
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" s="3">
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" s="3">
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" s="3">
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" s="3">
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" s="3">
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" s="3">
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" s="3">
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>51</v>
       </c>
+      <c r="B10" s="3">
+        <v>45757</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
